--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -58,25 +58,28 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Number of clicks</t>
@@ -94,13 +97,13 @@
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -115,13 +118,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -133,16 +136,13 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -808,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,10 +837,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -869,16 +869,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1000,25 +1000,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,16 +1029,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1253,28 +1253,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1390,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1515,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1834,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2017,21 +2017,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2055,39 +2055,39 @@
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,31 +2095,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2378,12 +2378,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2570,12 +2570,12 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3095,15 +3095,15 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3118,21 +3118,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3141,22 +3141,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,22 +3164,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3255,24 +3255,24 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3287,27 +3287,27 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3319,24 +3319,24 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3351,36 +3351,36 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -3420,39 +3420,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3479,50 +3479,50 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3543,18 +3543,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3607,18 +3607,18 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,18 +3671,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3703,12 +3703,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,16 +3740,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -3863,12 +3863,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4324,15 +4324,15 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4361,16 +4361,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4379,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4498,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4565,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4632,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4661,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4725,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4795,21 +4795,21 @@
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4818,13 +4818,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -4900,21 +4900,21 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -58,9 +58,6 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
@@ -68,6 +65,12 @@
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -79,7 +82,7 @@
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Number of clicks</t>
@@ -94,19 +97,16 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Links viewed</t>
   </si>
   <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -115,19 +115,19 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
     <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -142,7 +142,7 @@
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -811,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -872,16 +872,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -901,19 +901,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,10 +933,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1125,19 +1125,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1253,13 +1253,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1285,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1393,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2023,15 +2023,15 @@
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,33 +2043,33 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,31 +2095,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2314,18 +2314,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2346,27 +2346,27 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2378,18 +2378,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2474,18 +2474,18 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2506,12 +2506,12 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2538,12 +2538,12 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3127,12 +3127,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3319,27 +3319,27 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3351,27 +3351,27 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3452,31 +3452,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3516,22 +3516,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3543,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3563,71 +3563,71 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,18 +3639,18 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,18 +3671,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3703,12 +3703,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,16 +3740,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -3863,12 +3863,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4315,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4338,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4364,19 +4364,19 @@
         <v>41</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4434,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4489,16 +4489,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -4507,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -4632,27 +4632,27 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4661,27 +4661,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4708,12 +4708,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4725,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4760,16 +4760,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4795,21 +4795,21 @@
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -55,22 +55,13 @@
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -82,7 +73,13 @@
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Number of clicks</t>
@@ -97,16 +94,16 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -121,13 +118,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,10 +837,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -901,19 +901,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,10 +933,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1032,25 +1032,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1253,13 +1253,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1285,28 +1285,28 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1515,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1834,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1973,19 +1973,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2026,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2066,10 +2066,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2314,18 +2314,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2346,21 +2346,21 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2474,12 +2474,12 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2506,12 +2506,12 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2538,12 +2538,12 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,22 +3164,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3196,22 +3196,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3324,31 +3324,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -3511,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,13 +3548,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3566,21 +3566,21 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4283,24 +4283,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4312,16 +4312,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -4516,12 +4516,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4708,12 +4708,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4725,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4795,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -55,13 +55,16 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -70,10 +73,10 @@
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
@@ -82,7 +85,7 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,13 +97,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Number of clicks</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
+    <t>Links viewed</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -109,16 +112,13 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -127,22 +127,22 @@
     <t>Discussions viewed</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -747,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -901,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -939,25 +939,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1032,25 +1032,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1061,19 +1061,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1221,13 +1221,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1390,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1515,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1834,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2282,12 +2282,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2314,18 +2314,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2346,18 +2346,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -3127,21 +3127,21 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3182,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3319,15 +3319,15 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3516,31 +3516,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4280,39 +4280,39 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4324,12 +4324,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4338,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4356,21 +4356,21 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4379,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4661,27 +4661,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -55,16 +55,19 @@
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -73,19 +76,13 @@
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -97,13 +94,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Average grade of assignments</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -112,13 +109,13 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -130,10 +127,10 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -779,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,19 +901,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -939,25 +939,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1032,25 +1032,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1285,10 +1285,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1381,7 +1381,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1393,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2026,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2058,12 +2058,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2087,18 +2087,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2113,77 +2113,77 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2255,45 +2255,45 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2314,18 +2314,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2346,18 +2346,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2378,21 +2378,21 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2415,16 +2415,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2570,21 +2570,21 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2599,15 +2599,15 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3516,31 +3516,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3557,30 +3557,30 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,13 +4274,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4361,16 +4361,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4379,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4425,22 +4425,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4489,39 +4489,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4644,15 +4644,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4664,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4725,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4757,19 +4757,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -55,19 +55,19 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -76,13 +76,13 @@
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
+    <t>Average grade of assignments</t>
   </si>
   <si>
     <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -97,10 +97,10 @@
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Number of clicks</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -115,7 +115,7 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -869,19 +869,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,19 +901,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1253,28 +1253,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1381,10 +1381,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1967,19 +1967,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1994,15 +1994,15 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2017,21 +2017,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,27 +2043,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2087,30 +2087,30 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2122,24 +2122,24 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2154,12 +2154,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2255,31 +2255,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2287,25 +2287,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2378,21 +2378,21 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2538,18 +2538,18 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2570,21 +2570,21 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2599,15 +2599,15 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,15 +2935,15 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -2967,21 +2967,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,22 +3132,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3196,22 +3196,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3228,22 +3228,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -3368,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -3479,18 +3479,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3548,45 +3548,45 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4260,12 +4260,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4283,36 +4283,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4324,12 +4324,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4338,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4356,12 +4356,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4393,10 +4393,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -4425,22 +4425,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4489,39 +4489,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4629,27 +4629,27 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -4664,19 +4664,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4708,12 +4708,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4757,19 +4757,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -58,13 +58,16 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
@@ -79,10 +82,10 @@
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,13 +97,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -109,13 +112,13 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -127,10 +130,10 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -811,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -904,16 +904,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1032,25 +1032,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1253,28 +1253,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1285,10 +1285,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1393,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2011,27 +2011,27 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2055,15 +2055,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,31 +2095,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,25 +2287,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -2319,19 +2319,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2511,39 +2511,39 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,21 +2935,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3118,30 +3118,30 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3164,45 +3164,45 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3223,27 +3223,27 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3255,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3275,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3304,30 +3304,30 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,19 +3356,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -3388,31 +3388,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -3420,13 +3420,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -3452,16 +3452,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,16 +3548,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3580,42 +3580,42 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4204,13 +4204,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -4260,15 +4260,15 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4283,36 +4283,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4324,27 +4324,27 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4402,22 +4402,22 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -4434,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -4475,24 +4475,24 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4553,31 +4553,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4629,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4676,15 +4676,15 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -4693,27 +4693,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,13 +4841,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33.xlsx
@@ -58,13 +58,19 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -73,19 +79,7 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -97,13 +91,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Average grade of assignments</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -112,28 +106,31 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -843,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -907,25 +907,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,28 +933,28 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1061,19 +1061,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1285,10 +1285,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1393,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2063,31 +2063,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,19 +2287,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2319,22 +2319,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2378,18 +2378,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,31 +2511,31 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3118,21 +3118,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3159,27 +3159,27 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3191,21 +3191,21 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3214,27 +3214,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3255,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3275,27 +3275,27 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3310,21 +3310,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3336,33 +3336,33 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,19 +3388,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3420,13 +3420,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -3458,33 +3458,33 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -3511,27 +3511,27 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3543,27 +3543,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -3575,36 +3575,36 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -3612,45 +3612,45 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -3671,18 +3671,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3703,18 +3703,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3735,21 +3735,21 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -3863,12 +3863,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4324,15 +4324,15 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -4585,31 +4585,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4661,30 +4661,30 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4757,19 +4757,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -4792,16 +4792,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -4868,12 +4868,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
